--- a/LiveLoginTestCases/Usernames.xlsx
+++ b/LiveLoginTestCases/Usernames.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Authorised User</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>KZRkjIZ69dHiGaC</t>
+  </si>
+  <si>
+    <t>UGDMbIu7aTjIheO</t>
   </si>
 </sst>
 </file>
@@ -626,6 +629,11 @@
         <v>22</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LiveLoginTestCases/Usernames.xlsx
+++ b/LiveLoginTestCases/Usernames.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Authorised User</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>UGDMbIu7aTjIheO</t>
+  </si>
+  <si>
+    <t>lLknn5wvPkvjufa</t>
   </si>
 </sst>
 </file>
@@ -634,6 +637,11 @@
         <v>23</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LiveLoginTestCases/Usernames.xlsx
+++ b/LiveLoginTestCases/Usernames.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Authorised User</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>lLknn5wvPkvjufa</t>
+  </si>
+  <si>
+    <t>zQMUPjEodwZOLmG</t>
   </si>
 </sst>
 </file>
@@ -642,6 +645,11 @@
         <v>24</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LiveLoginTestCases/Usernames.xlsx
+++ b/LiveLoginTestCases/Usernames.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Authorised User</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>zQMUPjEodwZOLmG</t>
+  </si>
+  <si>
+    <t>hmKi2ciU1LJhTrM</t>
+  </si>
+  <si>
+    <t>W5tLFdnUz9Hd1Yq</t>
+  </si>
+  <si>
+    <t>XfLRchxFaScSnOt</t>
+  </si>
+  <si>
+    <t>aIo9QtOInGkuU2k</t>
   </si>
 </sst>
 </file>
@@ -650,6 +662,26 @@
         <v>25</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LiveLoginTestCases/Usernames.xlsx
+++ b/LiveLoginTestCases/Usernames.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Authorised User</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>aIo9QtOInGkuU2k</t>
+  </si>
+  <si>
+    <t>QjMxzAFXaxpWkKO</t>
+  </si>
+  <si>
+    <t>hZD3qLVBv4m5BxV</t>
+  </si>
+  <si>
+    <t>RL8tH25pbmLMvUf</t>
   </si>
 </sst>
 </file>
@@ -682,6 +691,21 @@
         <v>29</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LiveLoginTestCases/Usernames.xlsx
+++ b/LiveLoginTestCases/Usernames.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Authorised User</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>RL8tH25pbmLMvUf</t>
+  </si>
+  <si>
+    <t>hksDSSjWJlelYva</t>
+  </si>
+  <si>
+    <t>8b4gPhqiWqQOnSw</t>
+  </si>
+  <si>
+    <t>pByPxZua9rrL6KW</t>
   </si>
 </sst>
 </file>
@@ -623,6 +632,16 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -706,6 +725,11 @@
         <v>32</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
